--- a/Output/Classifier Inference/SVM/VGG Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/VGG Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04087830384572347</v>
+        <v>0.05509462356567383</v>
       </c>
       <c r="B2" t="n">
-        <v>2.745352843903524e-05</v>
+        <v>3.700109037318592e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/SVM/VGG Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/VGG Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05509462356567383</v>
+        <v>0.06007008949915568</v>
       </c>
       <c r="B2" t="n">
-        <v>3.700109037318592e-05</v>
+        <v>4.034257185974189e-05</v>
       </c>
     </row>
   </sheetData>
